--- a/biology/Zoologie/Cyclocephala/Cyclocephala.xlsx
+++ b/biology/Zoologie/Cyclocephala/Cyclocephala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyclocephala est un genre d'insectes coléoptères de la famille des Scarabaeidae. Certaines espèces sont nuisibles pour l'agriculture car leur grosses larves souterraines s'attaquent aux cultures. Celles-ci sont localement recherchées pour la consommation humaine[1]. 
-Ce genre a été décrit pour la première fois en 1821 par Pierre François Marie Auguste Dejean (1780-1845), entomologiste français[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyclocephala est un genre d'insectes coléoptères de la famille des Scarabaeidae. Certaines espèces sont nuisibles pour l'agriculture car leur grosses larves souterraines s'attaquent aux cultures. Celles-ci sont localement recherchées pour la consommation humaine. 
+Ce genre a été décrit pour la première fois en 1821 par Pierre François Marie Auguste Dejean (1780-1845), entomologiste français.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (6 mars 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (6 mars 2014) :
 Cyclocephala aravaipensis Ratcliffe, 1992
 Cyclocephala arenosa Howden &amp; Endrödi, 1966
 Cyclocephala barrerai Martínez, 1969
@@ -546,7 +560,7 @@
 Cyclocephala testacea Burmeister, 1847
 Cyclocephala variabilis Burmeister, 1847
 Cyclocephala wandae Hardy, 1974
-Selon Catalogue of Life                                   (6 mars 2014)[3] :
+Selon Catalogue of Life                                   (6 mars 2014) :
 Cyclocephala abrelata
 Cyclocephala acoma
 Cyclocephala aequatoria
